--- a/visitor_logs/2025/06/28.xlsx
+++ b/visitor_logs/2025/06/28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
   <si>
     <t>email</t>
   </si>
@@ -34,6 +34,9 @@
     <t>shadabsheikh314@gmail.com</t>
   </si>
   <si>
+    <t>heritage.spices.pvtltd@gmail.com</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -64,6 +67,75 @@
     <t>2025-06-28 09:20:22</t>
   </si>
   <si>
+    <t>2025-06-28 10:33:53</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:26:23</t>
+  </si>
+  <si>
+    <t>2025-06-28 10:45:10</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:47:10</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:49:23</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:49:40</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:50:00</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:50:22</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:03:53</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:04:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:15:10</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:22:53</t>
+  </si>
+  <si>
+    <t>2025-06-28 10:34:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 10:52:53</t>
+  </si>
+  <si>
+    <t>2025-06-28 11:04:07</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:25:19</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:26:09</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:29:13</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:34:07</t>
+  </si>
+  <si>
+    <t>2025-06-28 11:05:06</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:35:06</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:56:52</t>
+  </si>
+  <si>
+    <t>2025-06-28 11:26:52</t>
+  </si>
+  <si>
     <t>Go-http-client/1.1</t>
   </si>
   <si>
@@ -71,6 +143,12 @@
   </si>
   <si>
     <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Mobile Safari/537.36</t>
+  </si>
+  <si>
+    <t>WhatsApp/2.2524.4 W</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/136.0.0.0 Mobile Safari/537.36</t>
   </si>
 </sst>
 </file>
@@ -428,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,13 +531,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -467,13 +545,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -481,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -495,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -509,13 +587,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -523,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -537,27 +615,27 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -565,13 +643,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -579,13 +657,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -593,13 +671,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -607,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -621,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -635,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -649,27 +727,27 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -677,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -691,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -705,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -719,13 +797,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -733,13 +811,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -747,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -761,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -775,13 +853,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -789,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -803,13 +881,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -817,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -831,41 +909,41 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -873,13 +951,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -887,447 +965,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/visitor_logs/2025/06/28.xlsx
+++ b/visitor_logs/2025/06/28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>email</t>
   </si>
@@ -31,112 +31,154 @@
     <t>Guest</t>
   </si>
   <si>
-    <t>shadabsheikh314@gmail.com</t>
-  </si>
-  <si>
     <t>heritage.spices.pvtltd@gmail.com</t>
   </si>
   <si>
+    <t>sheikhzayan52@gmail.com</t>
+  </si>
+  <si>
+    <t>puneswad@gmail.com</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>2025-06-28 08:55:19</t>
-  </si>
-  <si>
-    <t>2025-06-28 08:56:09</t>
-  </si>
-  <si>
-    <t>2025-06-28 08:56:23</t>
-  </si>
-  <si>
-    <t>2025-06-28 08:59:13</t>
-  </si>
-  <si>
-    <t>2025-06-28 09:17:10</t>
-  </si>
-  <si>
-    <t>2025-06-28 09:19:23</t>
-  </si>
-  <si>
-    <t>2025-06-28 09:19:40</t>
-  </si>
-  <si>
-    <t>2025-06-28 09:20:00</t>
-  </si>
-  <si>
-    <t>2025-06-28 09:20:22</t>
-  </si>
-  <si>
-    <t>2025-06-28 10:33:53</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:26:23</t>
-  </si>
-  <si>
-    <t>2025-06-28 10:45:10</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:47:10</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:49:23</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:49:40</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:50:00</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:50:22</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:03:53</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:04:02</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:15:10</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:22:53</t>
-  </si>
-  <si>
-    <t>2025-06-28 10:34:02</t>
-  </si>
-  <si>
-    <t>2025-06-28 10:52:53</t>
-  </si>
-  <si>
-    <t>2025-06-28 11:04:07</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:25:19</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:26:09</t>
-  </si>
-  <si>
-    <t>2025-06-28 13:29:13</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:34:07</t>
-  </si>
-  <si>
-    <t>2025-06-28 11:05:06</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:35:06</t>
-  </si>
-  <si>
-    <t>2025-06-28 15:56:52</t>
-  </si>
-  <si>
-    <t>2025-06-28 11:26:52</t>
-  </si>
-  <si>
-    <t>Go-http-client/1.1</t>
+    <t>2025-06-28 14:47:05</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:49:43</t>
+  </si>
+  <si>
+    <t>2025-06-28 15:49:19</t>
+  </si>
+  <si>
+    <t>2025-06-28 12:17:07</t>
+  </si>
+  <si>
+    <t>2025-06-28 12:22:27</t>
+  </si>
+  <si>
+    <t>2025-06-28 12:43:43</t>
+  </si>
+  <si>
+    <t>2025-06-28 13:56:31</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:07:55</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:08:00</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:24:41</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:28:25</t>
+  </si>
+  <si>
+    <t>2025-06-28 14:45:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:47:07</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:52:27</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:13:43</t>
+  </si>
+  <si>
+    <t>2025-06-28 18:26:31</t>
+  </si>
+  <si>
+    <t>2025-06-28 18:37:55</t>
+  </si>
+  <si>
+    <t>2025-06-28 18:38:00</t>
+  </si>
+  <si>
+    <t>2025-06-28 18:54:41</t>
+  </si>
+  <si>
+    <t>2025-06-28 18:58:25</t>
+  </si>
+  <si>
+    <t>2025-06-28 19:15:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 19:17:05</t>
+  </si>
+  <si>
+    <t>2025-06-28 19:19:43</t>
+  </si>
+  <si>
+    <t>2025-06-28 20:19:19</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:00:55</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:30:55</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:41:13</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:41:56</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:43:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:11:13</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:11:56</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:13:02</t>
+  </si>
+  <si>
+    <t>2025-06-28 16:44:03</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:14:03</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:42:26</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:42:50</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:43:49</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:12:26</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:12:50</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:13:49</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:24:57</t>
+  </si>
+  <si>
+    <t>2025-06-28 21:54:57</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:34:06</t>
+  </si>
+  <si>
+    <t>2025-06-28 17:34:22</t>
+  </si>
+  <si>
+    <t>2025-06-28 22:04:06</t>
+  </si>
+  <si>
+    <t>2025-06-28 22:04:22</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/137.0.0.0 Safari/537.36</t>
@@ -145,10 +187,10 @@
     <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Mobile Safari/537.36</t>
   </si>
   <si>
-    <t>WhatsApp/2.2524.4 W</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/136.0.0.0 Mobile Safari/537.36</t>
+    <t>Mozilla/5.0 (compatible; Googlebot/2.1; +http://www.google.com/bot.html)</t>
+  </si>
+  <si>
+    <t>python-requests/2.32.4</t>
   </si>
 </sst>
 </file>
@@ -506,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -545,13 +587,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -559,41 +601,41 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -601,41 +643,41 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -643,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -657,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -671,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -685,41 +727,41 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -727,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -741,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -755,13 +797,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -769,13 +811,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -783,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -797,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -811,13 +853,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -825,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -839,13 +881,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -853,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -867,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -881,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -895,27 +937,27 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -923,55 +965,251 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
